--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +287,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -298,12 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,9 +314,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,7 +599,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,17 +612,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -636,10 +636,10 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
@@ -653,8 +653,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
@@ -668,8 +668,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
@@ -683,8 +683,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
@@ -692,8 +692,8 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2"/>
@@ -701,8 +701,8 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2"/>
@@ -710,8 +710,8 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
@@ -719,8 +719,8 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2"/>
@@ -728,8 +728,8 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2"/>
@@ -737,8 +737,8 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2"/>
@@ -746,8 +746,8 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2"/>
@@ -755,8 +755,8 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2"/>
@@ -764,10 +764,10 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2"/>
@@ -775,8 +775,8 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2"/>
@@ -784,8 +784,8 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2"/>
@@ -793,8 +793,8 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2"/>
@@ -802,8 +802,8 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2"/>
@@ -811,8 +811,8 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2"/>
@@ -820,8 +820,8 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2"/>
@@ -829,8 +829,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2"/>
@@ -838,10 +838,10 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2"/>
@@ -849,8 +849,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="2"/>
@@ -858,8 +858,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="2"/>
@@ -867,8 +867,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="2"/>
@@ -876,8 +876,8 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2"/>
@@ -885,8 +885,8 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="2"/>
@@ -894,8 +894,8 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="2"/>
@@ -903,8 +903,8 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="2"/>
@@ -912,8 +912,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2"/>
@@ -921,8 +921,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="2"/>
@@ -930,8 +930,8 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="2"/>
@@ -939,8 +939,8 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="2"/>
@@ -948,8 +948,8 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="2"/>
@@ -957,8 +957,8 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="2"/>
@@ -966,8 +966,8 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="2"/>
@@ -975,31 +975,31 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="B24:B38"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:F40"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
